--- a/medicine/Mort/Décès_en_2017/Décès_en_2017.xlsx
+++ b/medicine/Mort/Décès_en_2017/Décès_en_2017.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_2017</t>
+          <t>Décès_en_2017</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_2017</t>
+          <t>Décès_en_2017</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,8 +540,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Janvier
-1er janvier :
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1er janvier :
 René Ballet, écrivain français.
 2 janvier :
 François Chérèque, syndicaliste français, ancien secrétaire général de la CFDT ;
@@ -556,9 +573,43 @@
 27 janvier : Emmanuelle Riva, actrice française.
 31 janvier :
 John Wetton, bassiste britannique et chanteur de rock progressif.
-Annie Saumont, nouvelliste française
-Février
-1er février : Étienne Tshisekedi, personnalité politique congolaise.
+Annie Saumont, nouvelliste française</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_2017</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2017</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1er février : Étienne Tshisekedi, personnalité politique congolaise.
 6 février : Alec McCowen, acteur anglais
 7 février : Tzvetan Todorov, sémiologue français
 11 février : Jirō Taniguchi, mangaka japonais.
@@ -569,9 +620,43 @@
 Xavier Beulin, agriculteur et industriel français.
 Roger Knobelspiess, criminel français.
 21 février : Jean-Pierre Jorris, homme de théâtre.
-25 février : Bill Paxton, acteur et réalisateur américain.
-Mars
-3 mars : Raymond Kopa, ancien footballeur international français.
+25 février : Bill Paxton, acteur et réalisateur américain.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_2017</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2017</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>3 mars : Raymond Kopa, ancien footballeur international français.
 4 mars : Jean-Christophe Averty homme de radio et de télévision français.
 8 mars : Éliane Victor, journaliste de télévision française, épouse de l'explorateur Paul-Émile Victor.
 10 mars : Pierre Bouteiller, journaliste français de radio et de télévision.
@@ -583,17 +668,85 @@
 19 mars : Roger Pingeon, coureur cycliste français, vainqueur du Tour de France 1967.
 20 mars : David Rockefeller, homme d'affaires et milliardaire américain.
 21 mars : Henri Emmanuelli, homme politique français.
-28 mars : Janine Sutto, actrice québécoise d'origine française.
-Avril
-1er avril : Evgueni Evtouchenko, poète russe.
+28 mars : Janine Sutto, actrice québécoise d'origine française.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_2017</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2017</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1er avril : Evgueni Evtouchenko, poète russe.
 6 avril : Armand Gatti, poète, dramaturge et metteur en scène français.
 9 avril : Carme Chacón, femme d'État espagnole.
 15 avril : Emma Morano, supercentenaire italienne et doyenne de l'humanité.
 20 avril : Paul Hébert, acteur, metteur en scène et directeur de théâtre québécois.
 26 avril : Jonathan Demme, réalisateur, producteur et scénariste américain.
-30 avril : Ueli Steck alpiniste suisse.
-Mai
-4 mai : Victor Lanoux, acteur, producteur, scénariste et dramaturge français.
+30 avril : Ueli Steck alpiniste suisse.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_2017</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2017</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>4 mai : Victor Lanoux, acteur, producteur, scénariste et dramaturge français.
 5 mai : Corinne Erhel, femme politique française.
 8 mai : Rebeca Uribe Bone, première femme diplômée ingénieure en Colombie.
 12 mai : Mauno Koivisto, homme politique finlandais.
@@ -601,9 +754,43 @@
 19 mai : Stanley Green, photographe américain.
 22 mai : Nicky Hayden, pilote américain de moto.
 23 mai : Roger Moore, acteur britannique.
-28 mai : Jean-Marc Thibault, acteur français.
-Juin
-3 juin : Christophe Otzenberger, cinéaste français.
+28 mai : Jean-Marc Thibault, acteur français.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_2017</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2017</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>3 juin : Christophe Otzenberger, cinéaste français.
 6 juin : Juan Goytisolo, écrivain espagnol.
 7 juin : Keiichi Tahara, photographe japonais.
 9 juin : Adam West, acteur américain.
@@ -617,9 +804,43 @@
 22 juin : Quett Masire, Président de la République du Botswana.
 27 juin : Valentín Pimstein, producteur chilien.
 29 juin : Louis Nicollin, entrepreneur français et président du club de foot de Montpellier
-30 juin : Simone Veil, femme politique française.
-Juillet
-5 juillet : Pierre Henry, compositeur français de musique électroacoustique.
+30 juin : Simone Veil, femme politique française.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_2017</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2017</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>5 juillet : Pierre Henry, compositeur français de musique électroacoustique.
 9 juillet : Robert Vigouroux, homme politique français, professeur de médecine.
 13 juillet : Liu Xiaobo, écrivain chinois, professeur d'université et militant des droits de l'Homme, prix Nobel de la paix en 2010.
 15 juillet : Martin Landau, acteur américain.
@@ -636,9 +857,43 @@
 Jeanne Moreau, actrice française ;
 Sam Shepard, acteur américain ;
 Jean-Claude Bouillon, acteur français.
-Georges Martin, ingénieur automobile, père du « moteur Poissy » et du moteur V12 Matra Sports.
-Août
-5 août : Christian Millau, critique gastronomique français.
+Georges Martin, ingénieur automobile, père du « moteur Poissy » et du moteur V12 Matra Sports.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_2017</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2017</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>5 août : Christian Millau, critique gastronomique français.
 6 août : Nicole Bricq, ministre et sénatrice française.
 8 août : Gonzague Saint Bris, écrivain et journaliste français.
 14 août : Nubar Ozanyan, révolutionnaire communiste et combattant turc.
@@ -646,9 +901,43 @@
 20 août : Jerry Lewis, acteur, producteur et réalisateur américain.
 26 août :  Tobe Hooper, réalisateur américain.
 28 août : Mireille Darc, actrice française.
-31 août : Richard Anderson, acteur américain.
-Septembre
-6 septembre : Kate Millett, écrivaine américaine.
+31 août : Richard Anderson, acteur américain.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_2017</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2017</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>6 septembre : Kate Millett, écrivaine américaine.
 8 septembre : Pierre Bergé, homme d'affaires et mécène français.
 10 septembre : Kate Murtagh, actrice et chanteuse américaine.
 13 septembre : Frank Vincent, acteur américain d'origine italienne.
@@ -661,9 +950,43 @@
 23 septembre : Charles Bradley, chanteur américain.
 24 septembre : Gisèle Casadesus, actrice française.
 25 septembre : Gérard Palaprat, chanteur pop français.
-27 septembre : Hugh Hefner, fondateur et propriétaire du magazine de charme Playboy.
-Octobre
-1er octobre : Edmond Maire, syndicaliste français.
+27 septembre : Hugh Hefner, fondateur et propriétaire du magazine de charme Playboy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_2017</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2017</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1er octobre : Edmond Maire, syndicaliste français.
 2 octobre :
 Tom Petty, chanteur et guitariste américain de rock.
 Anne Bert, écrivaine française.
@@ -691,9 +1014,43 @@
 Didier Motchane, haut fonctionnaire et homme politique français.
 30 octobre :
 Clara Halter, sculptrice française.
-Amina Okueva, médecin militaire ukrainienne.
-Novembre
-6 novembre : Karin Dor, actrice allemande.
+Amina Okueva, médecin militaire ukrainienne.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_2017</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2017</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>6 novembre : Karin Dor, actrice allemande.
 7 novembre : Hans Schäfer, footballeur international allemand.
 8 novembre : Roger Grenier, écrivain, journaliste et homme de radio français.
 9 novembre :
@@ -722,9 +1079,43 @@
 25 novembre : Rance Howard, acteur, scénariste et producteur américain.
 28 novembre : Shadia, actrice et chanteuse égyptienne.
 29 novembre : Véronique Nordey, actrice française.
-30 novembre : Alain Jessua, réalisateur français.
-Décembre
-2 décembre : Ulli Lommel, acteur, scénariste et réalisateur allemand.
+30 novembre : Alain Jessua, réalisateur français.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_2017</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2017</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2 décembre : Ulli Lommel, acteur, scénariste et réalisateur allemand.
 4 décembre : Ali Abdallah Saleh, militaire et homme d'État yéménite.
 5 décembre :
 Johnny Hallyday, chanteur, compositeur et acteur français ;
